--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2636.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2636.xlsx
@@ -354,7 +354,7 @@
         <v>1.612879149011876</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>1.604517544026628</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2636.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2636.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.803049489028266</v>
+        <v>1.216143727302551</v>
       </c>
       <c r="B1">
-        <v>1.612879149011876</v>
+        <v>2.281803369522095</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>3.457645416259766</v>
       </c>
       <c r="D1">
-        <v>1.604517544026628</v>
+        <v>2.181242227554321</v>
       </c>
       <c r="E1">
-        <v>0.8753155617864657</v>
+        <v>1.320962071418762</v>
       </c>
     </row>
   </sheetData>
